--- a/Data/Qualitative analysis results/curated agent.xlsx
+++ b/Data/Qualitative analysis results/curated agent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xingqian/Desktop/msr_replication_package/Data/Qualitative analysis results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F881DBD3-D3AD-EF47-9C44-C1E1C495BEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599C5E0F-F77C-E74E-A7B3-95BBA568962D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7220" yWindow="2800" windowWidth="28040" windowHeight="17180" xr2:uid="{F6602C1A-4DBF-0845-837A-21C75D7DCBA7}"/>
+    <workbookView xWindow="6520" yWindow="2800" windowWidth="28040" windowHeight="17180" xr2:uid="{F6602C1A-4DBF-0845-837A-21C75D7DCBA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="156">
   <si>
     <t>curated agent</t>
   </si>
@@ -241,12 +241,282 @@
   <si>
     <t>readability, maintainability</t>
   </si>
+  <si>
+    <t>PR url</t>
+  </si>
+  <si>
+    <t>Commit Url</t>
+  </si>
+  <si>
+    <t>https://github.com/microsoft/ebpf-for-windows/pull/4476</t>
+  </si>
+  <si>
+    <t>https://github.com/microsoft/ebpf-for-windows/pull/4476/commits/8490b4d912c278acc7d8ce982e83414c6804242f</t>
+  </si>
+  <si>
+    <t>https://github.com/kanisterio/kanister/pull/3501</t>
+  </si>
+  <si>
+    <t>https://github.com/mlflow/mlflow/pull/15929</t>
+  </si>
+  <si>
+    <t>https://github.com/mlflow/mlflow/pull/15929/commits/3f7d79f45f602a21a5428333f9bf865668ad75f6</t>
+  </si>
+  <si>
+    <t>https://github.com/dotnet/aspire/pull/10691</t>
+  </si>
+  <si>
+    <t>https://github.com/dotnet/aspire/pull/10691/commits/db7c72b989ee351f3954ec8b994a0e50ab234e14</t>
+  </si>
+  <si>
+    <t>https://github.com/benwbrum/fromthepage/pull/4786</t>
+  </si>
+  <si>
+    <t>https://github.com/benwbrum/fromthepage/pull/4786/commits/6cc6db86575340595fbdf475daa4d6e1f4e898f7</t>
+  </si>
+  <si>
+    <t>https://github.com/camunda/camunda/pull/35007</t>
+  </si>
+  <si>
+    <t>https://github.com/camunda/camunda/pull/35007/commits/0c5cfcf3b0d2134d2bcbf33d2bdcbeb924b41e23</t>
+  </si>
+  <si>
+    <t>https://github.com/buster-so/buster/pull/535</t>
+  </si>
+  <si>
+    <t>https://github.com/buster-so/buster/pull/535/commits/867e364b9a0c213af4872f0ceef6c4aef1212b99</t>
+  </si>
+  <si>
+    <t>https://github.com/crewAIInc/crewAI/pull/2342</t>
+  </si>
+  <si>
+    <t>https://github.com/crewAIInc/crewAI/pull/2342/commits/6526ee5a93ff7ffef951d895acbe886026954b85</t>
+  </si>
+  <si>
+    <t>https://github.com/liam-hq/liam/pull/2166</t>
+  </si>
+  <si>
+    <t>https://github.com/liam-hq/liam/pull/2166/commits/b4f2af5489633084483f1f1676b65648320525fe</t>
+  </si>
+  <si>
+    <t>https://github.com/jina-ai/reader/pull/1124</t>
+  </si>
+  <si>
+    <t>https://github.com/jina-ai/reader/pull/1124/commits/de0dbfa06d0714d538943feb9c7e83699916b995</t>
+  </si>
+  <si>
+    <t>https://github.com/jina-ai/reader/pull/1123</t>
+  </si>
+  <si>
+    <t>https://github.com/jina-ai/reader/pull/1123/commits/492f88194543db5a8f541c23bdcbf7a4e14cc2ea</t>
+  </si>
+  <si>
+    <t>https://github.com/buster-so/buster/pull/597</t>
+  </si>
+  <si>
+    <t>https://github.com/buster-so/buster/pull/597/commits/58b1213480cded706608dcbd3fa40d52160822a3</t>
+  </si>
+  <si>
+    <t>https://github.com/antiwork/helper/pull/319</t>
+  </si>
+  <si>
+    <t>https://github.com/antiwork/helper/pull/319/commits/8b9b8e132b1807090d8d11743e020efb22fcc2da</t>
+  </si>
+  <si>
+    <t>https://github.com/antiwork/flexile/pull/414</t>
+  </si>
+  <si>
+    <t>https://github.com/antiwork/flexile/pull/414/commits/5442ef429110584e82ac3817c5858a18b02b8530</t>
+  </si>
+  <si>
+    <t>https://github.com/jina-ai/node-DeepResearch/pull/5</t>
+  </si>
+  <si>
+    <t>https://github.com/jina-ai/node-DeepResearch/pull/5/commits/07838fadf6bd6c749526d70c4dd37f09dd69a6ef</t>
+  </si>
+  <si>
+    <t>https://github.com/theopenco/llmgateway/pull/316</t>
+  </si>
+  <si>
+    <t>https://github.com/theopenco/llmgateway/pull/316/commits/0d5a103a8871afab12be40a5368dd76ebde12041</t>
+  </si>
+  <si>
+    <t>https://github.com/liam-hq/liam/pull/1936</t>
+  </si>
+  <si>
+    <t>https://github.com/liam-hq/liam/pull/1936/commits/5d163084e3273aeb38922bff3f09082833375572</t>
+  </si>
+  <si>
+    <t>https://github.com/softmaple/softmaple/pull/120</t>
+  </si>
+  <si>
+    <t>https://github.com/softmaple/softmaple/pull/120/commits/5bbb633718481e637cb94176de4e8c5eb246c57a</t>
+  </si>
+  <si>
+    <t>https://github.com/probelabs/probe/pull/56</t>
+  </si>
+  <si>
+    <t>https://github.com/probelabs/probe/pull/56/commits/6070199400b3ac285d4bb74fecf6453fe0010c90</t>
+  </si>
+  <si>
+    <t>https://github.com/polkadot-cloud/polkadot-staking-dashboard/pull/2803</t>
+  </si>
+  <si>
+    <t>https://github.com/polkadot-cloud/polkadot-staking-dashboard/pull/2803/commits/9c8333dd3ca7b9a71353403995d4dc4679780c42</t>
+  </si>
+  <si>
+    <t>https://github.com/jeroenterheerdt/HAsmartirrigation/pull/597</t>
+  </si>
+  <si>
+    <t>https://github.com/jeroenterheerdt/HAsmartirrigation/pull/597/commits/fcbb035cb57c58983d691476dbedf8ffddfaaca1</t>
+  </si>
+  <si>
+    <t>https://github.com/dotnet/android/pull/10274</t>
+  </si>
+  <si>
+    <t>https://github.com/dotnet/android/pull/10274/commits/870d735acf87a3b9f37955ed6e613e6e858623bd</t>
+  </si>
+  <si>
+    <t>https://github.com/github/gh-gei/pull/1386</t>
+  </si>
+  <si>
+    <t>https://github.com/github/gh-gei/pull/1386/commits/dbcd20ac09b59425c9b4e14fca85a4b224f7c928</t>
+  </si>
+  <si>
+    <t>https://github.com/cybersemics/em/pull/3027</t>
+  </si>
+  <si>
+    <t>https://github.com/cybersemics/em/pull/3027/commits/360c1b4e3392e7886a9f90c26d0108210f458752</t>
+  </si>
+  <si>
+    <t>https://github.com/public-ui/kolibri/pull/8109</t>
+  </si>
+  <si>
+    <t>https://github.com/public-ui/kolibri/pull/8109/commits/1699b44ec7817331165a9d1241dfe434a4e1a739</t>
+  </si>
+  <si>
+    <t>https://github.com/christianhelle/apiclientcodegen/pull/1186</t>
+  </si>
+  <si>
+    <t>https://github.com/christianhelle/apiclientcodegen/pull/1186/commits/46629b9e0cf9b07d7e99b45d6b7151c657cce524</t>
+  </si>
+  <si>
+    <t>https://github.com/giselles-ai/giselle/pull/895</t>
+  </si>
+  <si>
+    <t>https://github.com/giselles-ai/giselle/pull/895/commits/f95868345131b7a7911c48ea56b5db07bf837410</t>
+  </si>
+  <si>
+    <t>https://github.com/theopenco/llmgateway/pull/196</t>
+  </si>
+  <si>
+    <t>https://github.com/theopenco/llmgateway/pull/196/commits/eb9a4516798831b759f5688eab1d0e7369a58df4</t>
+  </si>
+  <si>
+    <t>https://github.com/reflex-dev/reflex-web/pull/1435</t>
+  </si>
+  <si>
+    <t>https://github.com/reflex-dev/reflex-web/pull/1435/commits/4844bf68763b79b57802185a93447d296e9cec81</t>
+  </si>
+  <si>
+    <t>https://github.com/liam-hq/liam/pull/2786</t>
+  </si>
+  <si>
+    <t>https://github.com/liam-hq/liam/pull/2786/commits/b6197cfcf1bbb7269a13696d34b582553a6a767f</t>
+  </si>
+  <si>
+    <t>https://github.com/theopenco/llmgateway/pull/239</t>
+  </si>
+  <si>
+    <t>https://github.com/theopenco/llmgateway/pull/239/commits/f555a79e05005842735704d23a02395fd3334614</t>
+  </si>
+  <si>
+    <t>https://github.com/ReactiveCircus/android-emulator-runner/pull/436</t>
+  </si>
+  <si>
+    <t>https://github.com/liam-hq/liam/pull/2077</t>
+  </si>
+  <si>
+    <t>https://github.com/liam-hq/liam/pull/2077/commits/f6468c0431ca7a714570d1a8d27fe2c70931160c</t>
+  </si>
+  <si>
+    <t>https://github.com/calcom/cal.com/pull/21142</t>
+  </si>
+  <si>
+    <t>https://github.com/calcom/cal.com/pull/21142/commits/5262cf0eca795a03187b58f9abe693073d890d32</t>
+  </si>
+  <si>
+    <t>https://github.com/antiwork/helper/pull/237</t>
+  </si>
+  <si>
+    <t>https://github.com/antiwork/helper/pull/237/commits/612eb5d054adac9f1e634062438cdfb92b5333a0</t>
+  </si>
+  <si>
+    <t>https://github.com/mendableai/firecrawl/pull/1753</t>
+  </si>
+  <si>
+    <t>https://github.com/firecrawl/firecrawl/pull/1753/commits/23bfc7c30f50e1ae0fd02c528120d9c2579fc6a8</t>
+  </si>
+  <si>
+    <t>https://github.com/liam-hq/liam/pull/2036</t>
+  </si>
+  <si>
+    <t>https://github.com/liam-hq/liam/pull/2036/commits/9584bc0d71e2ccfb832f9686cd4547d50fc461b1</t>
+  </si>
+  <si>
+    <t>https://github.com/kanisterio/kanister/pull/3502</t>
+  </si>
+  <si>
+    <t>https://github.com/kanisterio/kanister/pull/3502/commits/012d96de446c0a7995544c883f0b251e9fd5aaec</t>
+  </si>
+  <si>
+    <t>https://github.com/dotnet/runtime/pull/115761</t>
+  </si>
+  <si>
+    <t>https://github.com/dotnet/runtime/pull/115761/commits/72d517d83d42772f0d03e327ba2219089a034503</t>
+  </si>
+  <si>
+    <t>https://github.com/shugo/textbringer/pull/124</t>
+  </si>
+  <si>
+    <t>https://github.com/shugo/textbringer/pull/124/commits/6de39e69f756a4383327fe65ddccca4fd03aee0f</t>
+  </si>
+  <si>
+    <t>https://github.com/dotnet/aspire/pull/10627</t>
+  </si>
+  <si>
+    <t>https://github.com/dotnet/aspire/pull/10627/commits/fb0d0a86f279d9f1a0d63c3139d00e8c2b9a3379</t>
+  </si>
+  <si>
+    <t>https://github.com/primer/react/pull/6244</t>
+  </si>
+  <si>
+    <t>https://github.com/primer/react/pull/6244/commits/46acf778cf95a2d854e8c708fcf702b4d1c36e1c</t>
+  </si>
+  <si>
+    <t>https://github.com/polkadot-cloud/polkadot-staking-dashboard/pull/2899</t>
+  </si>
+  <si>
+    <t>https://github.com/polkadot-cloud/polkadot-staking-dashboard/pull/2899/commits/074f48aa398edc3d42d0ce4cf3c590767e84044f</t>
+  </si>
+  <si>
+    <t>https://github.com/theopenco/llmgateway/pull/198</t>
+  </si>
+  <si>
+    <t>https://github.com/theopenco/llmgateway/pull/198/commits/432328c8115db8e12844bab3f999796f6d574366</t>
+  </si>
+  <si>
+    <t>https://github.com/calcom/cal.com/pull/21460</t>
+  </si>
+  <si>
+    <t>https://github.com/calcom/cal.com/pull/21460/commits/c6e7dfae3b86d0c2eb0b09955a73cfb7eb654c25</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -257,6 +527,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF467886"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -279,10 +565,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -292,13 +579,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -631,54 +921,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21800A4F-E1F1-2B4B-BBEA-21C1C5136870}">
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="12" max="12" width="29.33203125" customWidth="1"/>
-    <col min="13" max="13" width="22.5" customWidth="1"/>
-    <col min="14" max="14" width="21.5" customWidth="1"/>
+    <col min="12" max="12" width="36" customWidth="1"/>
+    <col min="13" max="13" width="40.1640625" customWidth="1"/>
+    <col min="14" max="14" width="29.33203125" customWidth="1"/>
+    <col min="15" max="15" width="22.5" customWidth="1"/>
+    <col min="16" max="16" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4"/>
+      <c r="I1" s="5"/>
       <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" t="s">
         <v>38</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>39</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -712,8 +1010,10 @@
       <c r="K2" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>3172572289</v>
       </c>
@@ -747,13 +1047,19 @@
       <c r="K3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3115119469</v>
       </c>
@@ -787,13 +1093,17 @@
       <c r="K4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3096094015</v>
       </c>
@@ -827,15 +1137,21 @@
       <c r="K5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="3"/>
+      <c r="P5" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3267970992</v>
       </c>
@@ -869,13 +1185,19 @@
       <c r="K6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>3264881289</v>
       </c>
@@ -909,15 +1231,21 @@
       <c r="K7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3" t="s">
+      <c r="O7" s="3"/>
+      <c r="P7" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>3211507551</v>
       </c>
@@ -951,12 +1279,18 @@
       <c r="K8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3240396422</v>
       </c>
@@ -990,14 +1324,20 @@
       <c r="K9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2912958566</v>
       </c>
@@ -1031,12 +1371,18 @@
       <c r="K10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>3169977033</v>
       </c>
@@ -1070,12 +1416,18 @@
       <c r="K11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="N11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2775140286</v>
       </c>
@@ -1109,12 +1461,18 @@
       <c r="K12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="N12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2775122143</v>
       </c>
@@ -1148,12 +1506,18 @@
       <c r="K13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="N13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>3253293798</v>
       </c>
@@ -1187,12 +1551,18 @@
       <c r="K14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>3028603816</v>
       </c>
@@ -1226,12 +1596,18 @@
       <c r="K15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="N15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>3178933687</v>
       </c>
@@ -1265,12 +1641,18 @@
       <c r="K16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="N16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2825786243</v>
       </c>
@@ -1304,12 +1686,18 @@
       <c r="K17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="N17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>3128673835</v>
       </c>
@@ -1343,14 +1731,20 @@
       <c r="K18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="L18" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="O18" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3128931264</v>
       </c>
@@ -1384,12 +1778,18 @@
       <c r="K19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="L19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="N19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>3083204365</v>
       </c>
@@ -1423,17 +1823,23 @@
       <c r="K20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="N20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="O20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="P20" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>3235100943</v>
       </c>
@@ -1467,13 +1873,19 @@
       <c r="K21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="N21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>3129054890</v>
       </c>
@@ -1507,13 +1919,19 @@
       <c r="K22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="L22" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="N22" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>3230608495</v>
       </c>
@@ -1547,15 +1965,21 @@
       <c r="K23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="L23" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="N23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3" t="s">
+      <c r="O23" s="3"/>
+      <c r="P23" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>3218773894</v>
       </c>
@@ -1589,17 +2013,23 @@
       <c r="K24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="N24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="O24" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="P24" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>3211119439</v>
       </c>
@@ -1633,13 +2063,19 @@
       <c r="K25" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="L25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="N25" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>3141571114</v>
       </c>
@@ -1673,17 +2109,23 @@
       <c r="K26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="L26" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="N26" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="O26" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="P26" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>3252779862</v>
       </c>
@@ -1717,13 +2159,19 @@
       <c r="K27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="L27" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="N27" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>3090639461</v>
       </c>
@@ -1757,15 +2205,21 @@
       <c r="K28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="L28" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="N28" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M28" s="3" t="s">
+      <c r="O28" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>3078666004</v>
       </c>
@@ -1799,17 +2253,23 @@
       <c r="K29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="N29" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>3088559123</v>
       </c>
@@ -1843,17 +2303,23 @@
       <c r="K30" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="L30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N30" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M30" s="3" t="s">
+      <c r="O30" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="N30" s="3" t="s">
+      <c r="P30" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>3154494868</v>
       </c>
@@ -1887,15 +2353,21 @@
       <c r="K31" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="L31" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="N31" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3" t="s">
+      <c r="O31" s="3"/>
+      <c r="P31" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>3276421841</v>
       </c>
@@ -1929,14 +2401,20 @@
       <c r="K32" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="L32" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="N32" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="O32" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>3097148026</v>
       </c>
@@ -1970,14 +2448,20 @@
       <c r="K33" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="L33" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="N33" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="O33" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>3146354845</v>
       </c>
@@ -2011,14 +2495,18 @@
       <c r="K34" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="L34" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M34" s="6"/>
+      <c r="N34" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="P34" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>3158557487</v>
       </c>
@@ -2052,11 +2540,17 @@
       <c r="K35" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="L35" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="N35" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>3043613876</v>
       </c>
@@ -2090,14 +2584,20 @@
       <c r="K36" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L36" s="3" t="s">
+      <c r="L36" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="N36" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="O36" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>2997597213</v>
       </c>
@@ -2131,14 +2631,20 @@
       <c r="K37" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="L37" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="N37" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M37" s="5" t="s">
+      <c r="O37" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>3196981192</v>
       </c>
@@ -2172,12 +2678,18 @@
       <c r="K38" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L38" s="3" t="s">
+      <c r="L38" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="N38" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="M38" s="5"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="4"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>3151982889</v>
       </c>
@@ -2211,15 +2723,21 @@
       <c r="K39" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L39" s="3" t="s">
+      <c r="L39" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M39" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="N39" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="M39" s="5"/>
-      <c r="N39" s="3" t="s">
+      <c r="O39" s="4"/>
+      <c r="P39" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>3115993863</v>
       </c>
@@ -2253,15 +2771,21 @@
       <c r="K40" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L40" s="3" t="s">
+      <c r="L40" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="N40" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M40" s="5" t="s">
+      <c r="O40" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>3075843226</v>
       </c>
@@ -2295,13 +2819,19 @@
       <c r="K41" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L41" s="3" t="s">
+      <c r="L41" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M41" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="N41" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M41" s="5"/>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="4"/>
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>3201615275</v>
       </c>
@@ -2335,17 +2865,23 @@
       <c r="K42" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L42" s="3" t="s">
+      <c r="L42" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="N42" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M42" s="3" t="s">
+      <c r="O42" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N42" s="3" t="s">
+      <c r="P42" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>3255641734</v>
       </c>
@@ -2379,15 +2915,21 @@
       <c r="K43" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L43" s="3" t="s">
+      <c r="L43" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="N43" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3" t="s">
+      <c r="O43" s="3"/>
+      <c r="P43" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>3180429834</v>
       </c>
@@ -2421,15 +2963,21 @@
       <c r="K44" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L44" s="3" t="s">
+      <c r="L44" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="N44" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3" t="s">
+      <c r="O44" s="3"/>
+      <c r="P44" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>3251459747</v>
       </c>
@@ -2463,15 +3011,21 @@
       <c r="K45" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="L45" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="N45" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3" t="s">
+      <c r="O45" s="3"/>
+      <c r="P45" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>3088587671</v>
       </c>
@@ -2505,15 +3059,21 @@
       <c r="K46" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L46" s="3" t="s">
+      <c r="L46" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="N46" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3" t="s">
+      <c r="O46" s="3"/>
+      <c r="P46" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>3082414888</v>
       </c>
@@ -2547,13 +3107,19 @@
       <c r="K47" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L47" s="3" t="s">
+      <c r="L47" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="N47" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="O47" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="N47" s="3" t="s">
+      <c r="P47" s="3" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2563,6 +3129,96 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="L3" r:id="rId1" xr:uid="{65C756D6-588B-5240-AEB6-4EC1FB5742BD}"/>
+    <hyperlink ref="M3" r:id="rId2" xr:uid="{0F2CA3D2-1183-9A44-A2BA-68ABE12D72D7}"/>
+    <hyperlink ref="L4" r:id="rId3" xr:uid="{D435F959-0467-E04A-87E7-5B4819CFEAA2}"/>
+    <hyperlink ref="L5" r:id="rId4" xr:uid="{F66CC0F2-79D9-214E-AEC5-C691AC9A321A}"/>
+    <hyperlink ref="M5" r:id="rId5" xr:uid="{5C1D5A3D-90C1-7648-BE2A-8AAA2146A0F0}"/>
+    <hyperlink ref="L6" r:id="rId6" xr:uid="{51F30B19-3E43-2047-A036-F2692631FE9F}"/>
+    <hyperlink ref="M6" r:id="rId7" xr:uid="{F92E70AB-2291-9942-8229-0F1C83F882E8}"/>
+    <hyperlink ref="L7" r:id="rId8" xr:uid="{4CCF375A-098C-3242-9D59-2EAD541A9BB2}"/>
+    <hyperlink ref="M7" r:id="rId9" xr:uid="{D1AF16BA-5B18-C549-8D44-B0188BB75B10}"/>
+    <hyperlink ref="L8" r:id="rId10" xr:uid="{598540CE-90C4-3A46-8405-6836B4088EA4}"/>
+    <hyperlink ref="M8" r:id="rId11" xr:uid="{5D82DBB7-2879-A64A-8A7A-4FDBE71AD3F9}"/>
+    <hyperlink ref="L9" r:id="rId12" xr:uid="{FFDD8EF6-C9C1-924F-AC65-6FD71752530D}"/>
+    <hyperlink ref="M9" r:id="rId13" xr:uid="{40EDA339-C9C9-6F4B-A6D3-A745940F906A}"/>
+    <hyperlink ref="L10" r:id="rId14" xr:uid="{595AB14F-0C46-5840-BAC4-B66A8EBD8E84}"/>
+    <hyperlink ref="M10" r:id="rId15" xr:uid="{C67E071A-516A-D945-8D75-031AE3088F5C}"/>
+    <hyperlink ref="L11" r:id="rId16" xr:uid="{BE7E9E98-079A-8F47-B51D-5072AA91FCD8}"/>
+    <hyperlink ref="M11" r:id="rId17" xr:uid="{08014071-0E9B-F046-994C-D000573CE08D}"/>
+    <hyperlink ref="L12" r:id="rId18" xr:uid="{BB28A81D-E4DA-A342-BD52-44B041CEBE19}"/>
+    <hyperlink ref="M12" r:id="rId19" xr:uid="{8F2114BE-7CE5-184D-8E79-1F93551039CF}"/>
+    <hyperlink ref="L13" r:id="rId20" xr:uid="{0480C98E-9CC6-1A40-B515-9C3945521EF7}"/>
+    <hyperlink ref="M13" r:id="rId21" xr:uid="{E1DE1191-9DAC-894B-9FAC-E68E9898A2BA}"/>
+    <hyperlink ref="L14" r:id="rId22" xr:uid="{52024EBD-27AF-A44A-8211-51C183314D06}"/>
+    <hyperlink ref="M14" r:id="rId23" xr:uid="{2E7C53E7-4733-FC48-874C-8F8EACECBE4C}"/>
+    <hyperlink ref="L15" r:id="rId24" xr:uid="{325E4A07-0A64-1E4D-BFC7-987E7E758B17}"/>
+    <hyperlink ref="M15" r:id="rId25" xr:uid="{D207BD1B-FC7E-B542-A4EE-10F9833313A0}"/>
+    <hyperlink ref="L16" r:id="rId26" xr:uid="{0D91C7CF-7DB5-7C41-9F69-4F2165FBBB2F}"/>
+    <hyperlink ref="M16" r:id="rId27" xr:uid="{DAF2BDC9-BA66-8741-8134-E966307CF42E}"/>
+    <hyperlink ref="L17" r:id="rId28" xr:uid="{8EEDBB95-9F01-3A48-B01C-0C5F3E08C596}"/>
+    <hyperlink ref="M17" r:id="rId29" xr:uid="{07687B6E-B80F-D24D-B90D-66AD2FAC374C}"/>
+    <hyperlink ref="L18" r:id="rId30" xr:uid="{01A0C8AB-2EDC-DB4F-A9C6-4BF84503DE18}"/>
+    <hyperlink ref="M18" r:id="rId31" xr:uid="{24B623E4-38D4-2840-8C4C-B0344A3315CC}"/>
+    <hyperlink ref="L19" r:id="rId32" xr:uid="{51D60FBD-B18E-9947-B7D0-3306AFE6A043}"/>
+    <hyperlink ref="M19" r:id="rId33" xr:uid="{95DFC521-C8DD-2642-8C0F-50F70353C191}"/>
+    <hyperlink ref="L20" r:id="rId34" xr:uid="{9C4E1B4E-BB1C-EA4A-B8BA-8C447635E364}"/>
+    <hyperlink ref="M20" r:id="rId35" xr:uid="{5F16B03E-8E94-1546-801C-D4DCDC225B09}"/>
+    <hyperlink ref="L21" r:id="rId36" xr:uid="{F9A7167E-915C-F84E-8BB0-A65242E6616E}"/>
+    <hyperlink ref="M21" r:id="rId37" xr:uid="{BD420724-AF6A-944A-BA25-D9BAED9B4E1A}"/>
+    <hyperlink ref="L22" r:id="rId38" xr:uid="{2B3BECB3-E2D1-C944-A80C-6AF0A7651C82}"/>
+    <hyperlink ref="M22" r:id="rId39" xr:uid="{60E5063B-1D59-0947-81BD-96E00C285BF9}"/>
+    <hyperlink ref="L23" r:id="rId40" xr:uid="{F2A67964-537E-3640-9504-250CF04E21CE}"/>
+    <hyperlink ref="M23" r:id="rId41" xr:uid="{47AB0087-5F49-884F-8385-0CECCE241ADD}"/>
+    <hyperlink ref="L24" r:id="rId42" xr:uid="{249CD381-452F-434F-9F00-BD413F83447E}"/>
+    <hyperlink ref="M24" r:id="rId43" xr:uid="{00D25347-BD25-DF4A-875E-2AA3543731E4}"/>
+    <hyperlink ref="L25" r:id="rId44" xr:uid="{CC89A362-35C3-B74B-BDAC-C45F16FACC81}"/>
+    <hyperlink ref="M25" r:id="rId45" xr:uid="{39811E96-686A-3041-ADF8-9A1819E35922}"/>
+    <hyperlink ref="L26" r:id="rId46" xr:uid="{E7582024-8888-CF4D-A19D-FFE5645FE8F2}"/>
+    <hyperlink ref="M26" r:id="rId47" xr:uid="{E3E33B80-DD1E-DD4E-977D-76F744FE0935}"/>
+    <hyperlink ref="L27" r:id="rId48" xr:uid="{3C9ABC63-965D-0A49-BC8A-B77E1D33AFE4}"/>
+    <hyperlink ref="M27" r:id="rId49" xr:uid="{377CC8D5-698E-E84A-9749-8DC40D407899}"/>
+    <hyperlink ref="L28" r:id="rId50" xr:uid="{DCFC100E-EE43-3141-966B-4F10EE6124D0}"/>
+    <hyperlink ref="M28" r:id="rId51" xr:uid="{0EBFC19E-B8AF-AD48-94D9-1F06FB551FC9}"/>
+    <hyperlink ref="L29" r:id="rId52" xr:uid="{91F9C631-C583-C745-86CC-833E7114F5E9}"/>
+    <hyperlink ref="M29" r:id="rId53" xr:uid="{168516EB-2D74-C043-857D-52A801BA49B1}"/>
+    <hyperlink ref="L30" r:id="rId54" xr:uid="{D687EA72-5E9C-8B4F-A36F-143FAFA3DA09}"/>
+    <hyperlink ref="M30" r:id="rId55" xr:uid="{054922A8-1709-D548-9E7C-83CBEE940496}"/>
+    <hyperlink ref="L31" r:id="rId56" xr:uid="{99BE3D25-DD6D-E244-B70E-D2175BC66D64}"/>
+    <hyperlink ref="M31" r:id="rId57" xr:uid="{E02EA921-460B-7F4E-8F3A-6898DFA30192}"/>
+    <hyperlink ref="L32" r:id="rId58" xr:uid="{E16554FD-420C-9244-939C-41F3626F790F}"/>
+    <hyperlink ref="M32" r:id="rId59" xr:uid="{9A107937-6547-EE45-B873-F92BAA2D0253}"/>
+    <hyperlink ref="L33" r:id="rId60" xr:uid="{A1D12667-54BC-A24F-AAE6-41048578D799}"/>
+    <hyperlink ref="M33" r:id="rId61" xr:uid="{0E795086-86B6-D748-91C2-BFD8DC8397B3}"/>
+    <hyperlink ref="L34" r:id="rId62" xr:uid="{0D327C2A-FF9A-0047-B568-191D72838193}"/>
+    <hyperlink ref="L35" r:id="rId63" xr:uid="{AA36FA70-D09B-3447-A038-69AE50DAB842}"/>
+    <hyperlink ref="M35" r:id="rId64" xr:uid="{1206C62F-6900-3741-9B25-500927973117}"/>
+    <hyperlink ref="L36" r:id="rId65" xr:uid="{235B5AA6-7C8F-2C4F-9A64-243D6EB93B28}"/>
+    <hyperlink ref="M36" r:id="rId66" xr:uid="{50D20A71-D727-D44D-AADB-83D70A3D4DA9}"/>
+    <hyperlink ref="L37" r:id="rId67" xr:uid="{EFB544F6-796F-1F40-994A-D1D3C7973EF4}"/>
+    <hyperlink ref="M37" r:id="rId68" xr:uid="{435848B9-D294-9241-AC16-95ADFA96D6F7}"/>
+    <hyperlink ref="L38" r:id="rId69" xr:uid="{CC4EE7F1-5F3B-B54F-A299-99B46980BD40}"/>
+    <hyperlink ref="M38" r:id="rId70" xr:uid="{9687F9D3-8C2B-4F42-AA24-FA1C973B390B}"/>
+    <hyperlink ref="L39" r:id="rId71" xr:uid="{BA1A3D9D-C3C2-5B44-840C-5C1C7CD95866}"/>
+    <hyperlink ref="M39" r:id="rId72" xr:uid="{CBBDB2A3-0A42-5C40-805A-BA09E62BA388}"/>
+    <hyperlink ref="L40" r:id="rId73" xr:uid="{410838DD-E8D1-814D-B239-3481E7E51EEA}"/>
+    <hyperlink ref="M40" r:id="rId74" xr:uid="{93B4882F-717B-7146-A259-403152500E1A}"/>
+    <hyperlink ref="L41" r:id="rId75" xr:uid="{99807064-8C6E-8942-B3A5-C88FC872533F}"/>
+    <hyperlink ref="M41" r:id="rId76" xr:uid="{59258C4C-8AAD-BC4B-AC6F-D109B582D34D}"/>
+    <hyperlink ref="L42" r:id="rId77" xr:uid="{D7DD708C-946D-A743-BF54-5B2C718F82A3}"/>
+    <hyperlink ref="M42" r:id="rId78" xr:uid="{1F4F08BB-6F99-DA46-A46A-867F93706D18}"/>
+    <hyperlink ref="L43" r:id="rId79" xr:uid="{B05176DE-66D7-5942-BDF6-108B221C4053}"/>
+    <hyperlink ref="M43" r:id="rId80" xr:uid="{00305863-D545-0349-BC9A-741A9605B660}"/>
+    <hyperlink ref="L44" r:id="rId81" xr:uid="{C27865EF-24F7-FA49-BD5E-B356F020978A}"/>
+    <hyperlink ref="M44" r:id="rId82" xr:uid="{D7454632-6D71-3E4B-91C1-490BD43560CF}"/>
+    <hyperlink ref="L45" r:id="rId83" xr:uid="{013F9EAD-B5D2-644A-9B2B-F41B783D6F79}"/>
+    <hyperlink ref="M45" r:id="rId84" xr:uid="{50D4666B-15EA-304D-8C43-F5DC05956325}"/>
+    <hyperlink ref="L46" r:id="rId85" xr:uid="{5B8CD819-E5E6-194D-A766-E8BBA28A3045}"/>
+    <hyperlink ref="M46" r:id="rId86" xr:uid="{42F624BB-593E-EF45-B653-09008384F253}"/>
+    <hyperlink ref="L47" r:id="rId87" xr:uid="{32FC9841-E883-2542-B3D8-75DEE74A5ED8}"/>
+    <hyperlink ref="M47" r:id="rId88" xr:uid="{F0535242-ABCF-854A-B2B6-4506C5492E26}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>